--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3004,7 +3004,8 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until noon</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3524,7 +3525,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3575,12 +3576,13 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 9:30</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3622,13 +3624,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 9:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3663,21 +3664,9 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -3742,7 +3731,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3787,7 +3780,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3830,7 +3823,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3873,7 +3866,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3912,7 +3905,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3963,7 +3956,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4008,11 +4001,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -4046,9 +4035,21 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4087,19 +4088,15 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4139,12 +4136,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4186,12 +4183,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4221,12 +4218,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4256,12 +4253,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4280,41 +4277,6 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1782,12 +1782,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1849,12 +1849,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1904,13 +1905,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2309,21 +2309,9 @@
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2408,7 +2396,11 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>11:30 AM START</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2469,7 +2461,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>11:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2516,7 +2508,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #225, BRODHEAD</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2568,7 +2560,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #225, BRODHEAD</t>
+          <t>1604  1ST CENTER AVE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2623,7 +2615,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1604  1ST CENTER AVE</t>
+          <t>https://goo.gl/maps/UnLuFXtjZaD2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2635,7 +2627,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2678,7 +2670,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UnLuFXtjZaD2</t>
+          <t>*IL Meet is 10:15 am at IL Office</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2690,7 +2682,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2733,7 +2725,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>*IL Meet is 10:15 am at IL Office</t>
+          <t>CHECK WITH MGR BEFORE COUNTING OUTSIDE AND ENTRYWAY.</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2745,12 +2737,13 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2780,7 +2773,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CHECK WITH MGR BEFORE COUNTING OUTSIDE AND ENTRYWAY.</t>
+          <t>DBS LAST INVENTORY AND INC WITH GROCERY B/R</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2792,13 +2785,13 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2852,7 +2845,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DBS LAST INVENTORY AND INC WITH GROCERY B/R</t>
+          <t>THERE MAY BE A FEW RESETS IN FROZEN PER JUSTIN, NOT REMAPPED</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2864,13 +2857,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2916,7 +2908,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>THERE MAY BE A FEW RESETS IN FROZEN PER JUSTIN, NOT REMAPPED</t>
+          <t>10:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2928,12 +2920,13 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until noon</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -2985,11 +2978,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>10:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
@@ -2999,13 +2988,12 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store,
-Until noon</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3066,9 +3054,21 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3143,19 +3143,15 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3164,7 +3160,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3191,7 +3187,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3207,7 +3203,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3218,31 +3214,19 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3262,7 +3246,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3278,7 +3262,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3289,15 +3273,20 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3321,7 +3310,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3337,34 +3326,38 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>w/ Sarah</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3385,7 +3378,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3401,36 +3394,36 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>w/ Sarah</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3446,21 +3439,9 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -3469,7 +3450,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3480,25 +3461,20 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3525,31 +3501,24 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 9:30</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
+          <t>8200 N SECOND ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3566,7 +3535,11 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3576,13 +3549,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 9:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3593,7 +3565,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>8200 N SECOND ST</t>
+          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3612,26 +3584,14 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -3640,7 +3600,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3659,7 +3619,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #65, GENOA MOBIL</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3673,11 +3633,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3694,22 +3650,38 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>KELLEY #65, GENOA MOBIL</t>
+          <t>439 W MAIN ST</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3725,7 +3697,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>439 W MAIN ST</t>
+          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3733,7 +3705,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3744,19 +3716,15 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3772,7 +3740,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
+          <t>*IL Meet is 6:00 am at IL Office</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3780,7 +3748,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3791,12 +3759,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3815,7 +3783,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:00 am at IL Office</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3823,7 +3791,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3834,12 +3802,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3856,17 +3824,13 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3877,12 +3841,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3898,14 +3862,26 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3916,12 +3892,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3939,42 +3915,26 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3990,19 +3950,31 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4025,31 +3997,31 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4072,28 +4044,29 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4119,29 +4092,28 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4165,30 +4137,18 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4218,12 +4178,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4242,41 +4202,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -1710,12 +1710,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1782,12 +1782,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1849,13 +1849,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1905,12 +1904,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -3439,9 +3439,21 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -3535,11 +3547,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3584,7 +3592,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3619,7 +3627,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>KELLEY #65, GENOA MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3650,7 +3658,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>439 W MAIN ST</t>
+          <t>KELLEY #65, GENOA MOBIL</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3697,7 +3705,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
+          <t>439 W MAIN ST</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3740,7 +3748,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:00 am at IL Office</t>
+          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3783,7 +3791,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 6:00 am at IL Office</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3824,7 +3832,11 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3862,21 +3874,9 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
@@ -3915,15 +3915,19 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3950,12 +3954,12 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3997,19 +4001,15 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
@@ -4044,18 +4044,17 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -4092,17 +4091,18 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -4137,9 +4137,21 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -2920,13 +2920,12 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store,
-Until noon</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -2988,7 +2987,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3077,7 +3076,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3512,13 +3512,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 9:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3556,12 +3555,13 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 9:30</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3596,9 +3596,21 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -3663,11 +3675,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3712,7 +3720,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3755,7 +3763,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3798,7 +3806,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3841,7 +3849,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3880,7 +3888,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3929,7 +3937,11 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3963,21 +3975,9 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4012,15 +4012,19 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4059,12 +4063,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4107,12 +4111,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4154,12 +4158,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4189,12 +4193,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4213,6 +4217,41 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3512,12 +3512,13 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 9:30</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3555,13 +3556,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 9:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3596,21 +3596,9 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -3675,7 +3663,11 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3720,7 +3712,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3763,7 +3755,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3806,7 +3798,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3849,7 +3841,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3888,7 +3880,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3937,11 +3929,7 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3975,9 +3963,21 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4012,19 +4012,15 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4063,12 +4059,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4111,12 +4107,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4158,12 +4154,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4193,12 +4189,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4217,41 +4213,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1324,15 +1324,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1376,15 +1371,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1458,7 +1448,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1470,15 +1460,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1490,7 +1475,12 @@
           <t>Qiana</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1522,10 +1512,15 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1534,10 +1529,15 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1578,13 +1578,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1595,13 +1594,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1643,12 +1641,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1659,12 +1657,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1710,12 +1709,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1726,13 +1725,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1782,30 +1780,18 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
@@ -1849,12 +1835,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1904,18 +1891,21 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1964,7 +1954,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -1976,7 +1966,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2019,19 +2009,19 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MARIANO'S #523 +RX, GURNEE</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2098,19 +2088,19 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>MARIANO'S #523 +RX, GURNEE</t>
+          <t>6655 GRAND AVE</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2174,7 +2164,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2186,7 +2176,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6655 GRAND AVE</t>
+          <t>https://goo.gl/maps/SV1CeAGfq1s</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2246,26 +2236,14 @@
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SV1CeAGfq1s</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2314,11 +2292,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2353,12 +2327,28 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11:30 AM START</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
@@ -2398,26 +2388,22 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>11:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2461,22 +2447,27 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #225, BRODHEAD</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2508,27 +2499,22 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #225, BRODHEAD</t>
+          <t>1604  1ST CENTER AVE</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2560,22 +2546,26 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1604  1ST CENTER AVE</t>
+          <t>https://goo.gl/maps/UnLuFXtjZaD2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2615,19 +2605,19 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UnLuFXtjZaD2</t>
+          <t>*IL Meet is 10:15 am at IL Office</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2670,24 +2660,25 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>*IL Meet is 10:15 am at IL Office</t>
+          <t>CHECK WITH MGR BEFORE COUNTING OUTSIDE AND ENTRYWAY.</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2725,25 +2716,25 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CHECK WITH MGR BEFORE COUNTING OUTSIDE AND ENTRYWAY.</t>
+          <t>DBS LAST INVENTORY AND INC WITH GROCERY B/R</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2773,25 +2764,24 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DBS LAST INVENTORY AND INC WITH GROCERY B/R</t>
+          <t>THERE MAY BE A FEW RESETS IN FROZEN PER JUSTIN, NOT REMAPPED</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2845,19 +2835,19 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>THERE MAY BE A FEW RESETS IN FROZEN PER JUSTIN, NOT REMAPPED</t>
+          <t>10:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2906,21 +2896,17 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>10:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2976,18 +2962,30 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3055,28 +3053,24 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3142,31 +3136,19 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3213,15 +3195,20 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3272,23 +3259,26 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>w/ Sarah</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3337,24 +3327,25 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>w/ Sarah</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3404,25 +3395,20 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3470,22 +3456,14 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
+          <t>8200 N SECOND ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3529,7 +3507,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>8200 N SECOND ST</t>
+          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3572,7 +3550,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3605,11 +3583,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3639,9 +3613,21 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3676,19 +3662,15 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3723,12 +3705,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3766,12 +3748,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3809,12 +3791,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3852,12 +3834,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3889,16 +3871,8 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -1014,7 +1014,11 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Gray Van to get maintenance done during store</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1077,22 +1081,9 @@
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1148,15 +1139,20 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1219,19 +1215,15 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1307,15 +1299,19 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1378,12 +1374,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1455,12 +1451,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1524,20 +1520,15 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1589,17 +1580,18 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1652,18 +1644,17 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1720,17 +1711,18 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1789,9 +1781,21 @@
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
@@ -1901,11 +1905,7 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1966,7 +1966,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2021,7 +2021,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>MARIANO'S #523 +RX, GURNEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6655 GRAND AVE</t>
+          <t>MARIANO'S #523 +RX, GURNEE</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2176,7 +2176,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SV1CeAGfq1s</t>
+          <t>6655 GRAND AVE</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>https://goo.gl/maps/SV1CeAGfq1s</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2292,7 +2292,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2334,21 +2338,9 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
@@ -2395,15 +2387,19 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2454,20 +2450,15 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2506,15 +2497,20 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2553,19 +2549,15 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2612,12 +2604,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2667,18 +2659,17 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2723,18 +2714,18 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2771,17 +2762,18 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2842,12 +2834,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2901,12 +2893,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2980,12 +2972,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3065,12 +3057,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3146,9 +3138,21 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3274,11 +3278,7 @@
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3345,7 +3345,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3408,7 +3408,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3463,7 +3463,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>8200 N SECOND ST</t>
+          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3507,7 +3507,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
+          <t>8200 N SECOND ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3550,7 +3550,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3583,7 +3583,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3613,21 +3617,9 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3662,15 +3654,19 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3705,12 +3701,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3748,12 +3744,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3791,12 +3787,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3834,12 +3830,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3871,8 +3867,16 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Madison Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Madison Schedule.xlsx
@@ -2858,11 +2858,7 @@
           <t>Ashley P</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store ?</t>
-        </is>
-      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
